--- a/resources/experiment 1/metrics/R2/incidence/Infarto de Miocardio (INC).xlsx
+++ b/resources/experiment 1/metrics/R2/incidence/Infarto de Miocardio (INC).xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.809127174128098</v>
+        <v>0.8091271741280979</v>
       </c>
       <c r="C2" t="n">
         <v>0.809127174128098</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9336989587346608</v>
+        <v>0.8660749081655226</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9335294837645806</v>
+        <v>0.8974191652456925</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9335294837645806</v>
+        <v>0.8640674321421672</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9743214012568898</v>
+        <v>0.8338498049065466</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9743214012568898</v>
+        <v>0.8316492258835613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9743214012568898</v>
+        <v>0.8434017444386065</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8651615114276748</v>
+        <v>0.8698051527777229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8653937953995752</v>
+        <v>0.9053963869124866</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8653937953995752</v>
+        <v>0.8606551045605472</v>
       </c>
     </row>
   </sheetData>
